--- a/week-1/Solutions/1-2-A-basics-formulas-functions-solutions.xlsx
+++ b/week-1/Solutions/1-2-A-basics-formulas-functions-solutions.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George Mount\Documents\GitHub\data-analytics-lectures\week-1\Solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analytics-lectures\week-1\Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C01B057-8C67-43EB-921C-09C861C4FAA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-38510" yWindow="-2540" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="temperature" sheetId="6" r:id="rId4"/>
     <sheet name="sales-tax" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>George Mount</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -140,7 +141,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -489,10 +490,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -509,14 +510,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1178,7 +1179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1241,10 +1242,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1421,7 +1424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/week-1/Solutions/1-2-A-basics-formulas-functions-solutions.xlsx
+++ b/week-1/Solutions/1-2-A-basics-formulas-functions-solutions.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analytics-lectures\week-1\Solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\data-analytics-lectures\week-1\Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C01B057-8C67-43EB-921C-09C861C4FAA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA18AD90-B7B2-4913-B90A-0755A092E0FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-2540" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
     <sheet name="nyc-population-solution" sheetId="5" r:id="rId2"/>
     <sheet name="formulas-vs-functions" sheetId="7" r:id="rId3"/>
-    <sheet name="temperature" sheetId="6" r:id="rId4"/>
+    <sheet name="temperature-solution" sheetId="6" r:id="rId4"/>
     <sheet name="sales-tax" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -493,14 +493,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,12 +524,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -555,7 +555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1800</v>
       </c>
@@ -583,7 +583,7 @@
         <v>60515</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1810</v>
       </c>
@@ -611,7 +611,7 @@
         <v>96373</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1820</v>
       </c>
@@ -639,7 +639,7 @@
         <v>123706</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1830</v>
       </c>
@@ -667,7 +667,7 @@
         <v>202589</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1840</v>
       </c>
@@ -695,7 +695,7 @@
         <v>312710</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1850</v>
       </c>
@@ -723,7 +723,7 @@
         <v>515547</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1860</v>
       </c>
@@ -751,7 +751,7 @@
         <v>813669</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1870</v>
       </c>
@@ -779,7 +779,7 @@
         <v>942292</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1880</v>
       </c>
@@ -807,7 +807,7 @@
         <v>1164673</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1890</v>
       </c>
@@ -835,7 +835,7 @@
         <v>1441216</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1900</v>
       </c>
@@ -863,7 +863,7 @@
         <v>1850093</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1910</v>
       </c>
@@ -891,7 +891,7 @@
         <v>2331542</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1920</v>
       </c>
@@ -919,7 +919,7 @@
         <v>2284103</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1930</v>
       </c>
@@ -947,7 +947,7 @@
         <v>2560401</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1940</v>
       </c>
@@ -975,7 +975,7 @@
         <v>2698285</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1950</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>2738175</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1960</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>2627319</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1970</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>2602012</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1980</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>2230936</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1990</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>2300664</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2000</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>2465326</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2010</v>
       </c>
@@ -1184,33 +1184,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>=B2+B3+B4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -1245,21 +1245,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>43728</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>=B2-32*5/9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>43729</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>=B3-32*5/9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>43730</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>=B4-32*5/9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>43731</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>=B5-32*5/9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>43732</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>=B6-32*5/9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1428,19 +1428,19 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>43728</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>43729</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>43730</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>43731</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>43732</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>43733</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>=SUM(B2:B7)*0.15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
